--- a/avaliacoes01.xlsx
+++ b/avaliacoes01.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Avaliador</t>
   </si>
   <si>
+    <t>Abstenção</t>
+  </si>
+  <si>
     <t>Gravidade</t>
   </si>
   <si>
@@ -64,25 +67,19 @@
     <t>André Diniz</t>
   </si>
   <si>
-    <t>Guilherme Carrijo</t>
-  </si>
-  <si>
-    <t>Patricia Testai</t>
-  </si>
-  <si>
-    <t>Paulo Ravagnani</t>
-  </si>
-  <si>
-    <t>Teste de salvamento, 1</t>
-  </si>
-  <si>
-    <t>TEste 2</t>
-  </si>
-  <si>
-    <t>Teste 3</t>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Avaliador optou por abster-se</t>
   </si>
   <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>Testandoo</t>
   </si>
 </sst>
 </file>
@@ -440,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,248 +483,107 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>4.5</v>
       </c>
-      <c r="D2">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>4.85</v>
+      </c>
+      <c r="M3">
+        <v>4.925</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4.25</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
         <v>3.5</v>
       </c>
-      <c r="E2">
-        <v>4.05</v>
-      </c>
-      <c r="F2">
-        <v>4.5</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4.5</v>
-      </c>
-      <c r="I2">
-        <v>3.5</v>
-      </c>
-      <c r="J2">
-        <v>3.5</v>
-      </c>
-      <c r="K2">
-        <v>4.15</v>
-      </c>
-      <c r="L2">
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>3.95</v>
+      </c>
+      <c r="M4">
         <v>4.1</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4.5</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>3.65</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>3.5</v>
-      </c>
-      <c r="I3">
-        <v>3.5</v>
-      </c>
-      <c r="J3">
-        <v>3.5</v>
-      </c>
-      <c r="K3">
-        <v>3.8</v>
-      </c>
-      <c r="L3">
-        <v>3.725</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3.5</v>
-      </c>
-      <c r="D4">
-        <v>4.5</v>
-      </c>
-      <c r="E4">
-        <v>3.45</v>
-      </c>
-      <c r="F4">
-        <v>3.5</v>
-      </c>
-      <c r="G4">
-        <v>3.5</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>4.5</v>
-      </c>
-      <c r="K4">
-        <v>3.75</v>
-      </c>
-      <c r="L4">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4.5</v>
-      </c>
-      <c r="D5">
-        <v>3.5</v>
-      </c>
-      <c r="E5">
-        <v>4.05</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>3.5</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>3.5</v>
-      </c>
-      <c r="K5">
-        <v>3.8</v>
-      </c>
-      <c r="L5">
-        <v>3.925</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>3.5</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3.75</v>
-      </c>
-      <c r="F6">
-        <v>4.5</v>
-      </c>
-      <c r="G6">
-        <v>3.5</v>
-      </c>
-      <c r="H6">
-        <v>4.5</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4.1</v>
-      </c>
-      <c r="L6">
-        <v>3.925</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3.5</v>
-      </c>
-      <c r="E7">
-        <v>3.9</v>
-      </c>
-      <c r="F7">
-        <v>4.5</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>4.5</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>3.95</v>
       </c>
     </row>
   </sheetData>
